--- a/검수 데이터/송촌중/Compact.xlsx
+++ b/검수 데이터/송촌중/Compact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\workspace\group_classification\검수 데이터\송촌중\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0875B9E6-AA35-4B4F-BB56-FF7104B80D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D8FE2-C06A-4F12-8485-3FB34013E5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E3AC35F-A3BE-4FA1-98F2-11FAEEE3226C}"/>
   </bookViews>
@@ -303,9 +303,6 @@
     <t>잠재능력 진단검사(20250224) 결과, 전수연 학생은 기초학습역량에서 시각적 · 공간적인 창조물을 만들어 내거나 문제를 해결하는 능력이 평균 이상 수준으로 관찰되며, 정서적 민감성에선 우울, 부정적 대인정서, 특이성, 예민성, 과잉행동, 정서 충격 모두 바람직한 수준으로 나타나 학생의 특성에 맞춰 학업 및 진로 지도하였음.</t>
   </si>
   <si>
-    <t>정설하</t>
-  </si>
-  <si>
     <t>잠재능력 진단검사(20250224) 결과, 정설하 학생은 기초학습역량에서 공간적인 상징체계를 익히고, 이를 통해 시각적 · 공간적인 창조물을 만들어 내거나 문제를 해결하는 능력이 우수한 수준으로 관찰되었음. 또한 추상적으로 구성된 체계에 대한 분류, 통합, 추론, 일반화 등을 통해 체계 속에서 규칙이나 법칙을 발견할 수 있는 능력이 보통 수준으로 관찰되었음, 정서적 민감성에선 과잉행동 요인이 높은 수준으로 관찰되어 학생의 특성에 따라 학업 및 진로 지도하였음.</t>
   </si>
   <si>
@@ -2055,9 +2052,6 @@
     <t>잠재능력 진단검사(20250224) 결과, 조호영 학생은 기초학습역량에서 분류, 통합, 추론, 일반화를 통해 규칙이나 법칙을 발견할 수 있는 능력이 평균 이상 수준으로 관찰되며, 정서적 민감성에선 우울, 부정적 대인정서, 특이성, 예민성, 과잉행동, 정서 충격 모두 바람직한 수준으로 나타나 학생의 특성에 맞춰 학업 및 진로 지도하였음.</t>
   </si>
   <si>
-    <t>지예리</t>
-  </si>
-  <si>
     <t>잠재능력 진단검사(20250224) 결과, 지예리 학생은 기초학습역량에서 추상적으로 구성된 체계에 대한 분류, 통합, 추론, 일반화 등을 통해 체계 속에서 규칙이나 법칙을 발견할 수 있는 능력이 평균 이상 수준으로 관찰되었음, 또한 음운, 어문, 의미 등의 언어 상징 체계를 빠르게 익히고, 관련된 문제를 해결할 수 있으며, 상징체계를 창조할 수 있는 능력이 평균 이상 수준으로 관찰되었음. 정서적 민감성에선 우울, 부정적 대인정서, 특이성, 예민성, 과잉행동, 정서 충격 모두 바람직한 수준으로 나타나 학생의 특성에 맞춰 학업 및 진로 지도하였음.</t>
   </si>
   <si>
@@ -2218,6 +2212,14 @@
   </si>
   <si>
     <t>공동체 지향성</t>
+  </si>
+  <si>
+    <t>정설화</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>지예린</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2941,6 +2943,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2950,16 +2961,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3339,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3061F58A-3F7A-491E-B706-9E41912ABAD0}">
   <dimension ref="A1:AD235"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3378,190 +3380,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="6" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="5"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="6" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="6" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="6" t="s">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="8"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="P3" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5416,13 +5418,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G24" s="2">
         <v>38</v>
@@ -5508,13 +5510,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G25" s="2">
         <v>33</v>
@@ -5600,13 +5602,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G26" s="2">
         <v>41</v>
@@ -5692,13 +5694,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G27" s="2">
         <v>36</v>
@@ -5784,13 +5786,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G28" s="2">
         <v>40</v>
@@ -5876,13 +5878,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G29" s="2">
         <v>38</v>
@@ -5968,13 +5970,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G30" s="2">
         <v>27</v>
@@ -6060,13 +6062,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -6152,13 +6154,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G32" s="2">
         <v>41</v>
@@ -6244,13 +6246,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G33" s="2">
         <v>45</v>
@@ -6336,13 +6338,13 @@
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G34" s="2">
         <v>40</v>
@@ -6428,13 +6430,13 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G35" s="2">
         <v>27</v>
@@ -6470,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S35" s="2">
         <v>59</v>
@@ -6520,13 +6522,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G36" s="2">
         <v>39</v>
@@ -6612,13 +6614,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G37" s="2">
         <v>33</v>
@@ -6704,13 +6706,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="G38" s="2">
         <v>49</v>
@@ -6796,13 +6798,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G39" s="2">
         <v>35</v>
@@ -6888,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G40" s="2">
         <v>60</v>
@@ -6980,13 +6982,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G41" s="2">
         <v>32</v>
@@ -7072,13 +7074,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="G42" s="2">
         <v>41</v>
@@ -7164,13 +7166,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="G43" s="2">
         <v>39</v>
@@ -7256,13 +7258,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="G44" s="2">
         <v>43</v>
@@ -7348,13 +7350,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="G45" s="2">
         <v>25</v>
@@ -7440,13 +7442,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G46" s="2">
         <v>51</v>
@@ -7532,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="G47" s="2">
         <v>35</v>
@@ -7556,7 +7558,7 @@
         <v>68</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -7624,13 +7626,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G48" s="2">
         <v>38</v>
@@ -7648,7 +7650,7 @@
         <v>68</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -7716,13 +7718,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="G49" s="2">
         <v>33</v>
@@ -7808,13 +7810,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G50" s="2">
         <v>40</v>
@@ -7900,13 +7902,13 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="G51" s="2">
         <v>39</v>
@@ -7992,13 +7994,13 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="G52" s="2">
         <v>35</v>
@@ -8084,13 +8086,13 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G53" s="2">
         <v>35</v>
@@ -8176,13 +8178,13 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="G54" s="2">
         <v>35</v>
@@ -8268,13 +8270,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G55" s="2">
         <v>44</v>
@@ -8360,13 +8362,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="G56" s="2">
         <v>40</v>
@@ -8452,13 +8454,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="G57" s="2">
         <v>45</v>
@@ -8544,13 +8546,13 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G58" s="2">
         <v>36</v>
@@ -8586,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S58" s="2">
         <v>39</v>
@@ -8636,13 +8638,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="G59" s="2">
         <v>40</v>
@@ -8728,13 +8730,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="G60" s="2">
         <v>29</v>
@@ -8912,13 +8914,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="G62" s="2">
         <v>48</v>
@@ -9004,13 +9006,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="G63" s="2">
         <v>36</v>
@@ -9096,13 +9098,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="G64" s="2">
         <v>38</v>
@@ -9188,13 +9190,13 @@
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G65" s="2">
         <v>38</v>
@@ -9280,13 +9282,13 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="G66" s="2">
         <v>45</v>
@@ -9372,13 +9374,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G67" s="2">
         <v>39</v>
@@ -9464,13 +9466,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="G68" s="2">
         <v>36</v>
@@ -9556,13 +9558,13 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="G69" s="2">
         <v>24</v>
@@ -9648,13 +9650,13 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G70" s="2">
         <v>43</v>
@@ -9672,7 +9674,7 @@
         <v>68</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M70" s="2">
         <v>1</v>
@@ -9740,13 +9742,13 @@
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G71" s="2">
         <v>44</v>
@@ -9832,13 +9834,13 @@
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G72" s="2">
         <v>30</v>
@@ -9924,13 +9926,13 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="G73" s="2">
         <v>43</v>
@@ -9966,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S73" s="2">
         <v>39</v>
@@ -10016,13 +10018,13 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="G74" s="2">
         <v>44</v>
@@ -10108,13 +10110,13 @@
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="G75" s="2">
         <v>36</v>
@@ -10200,13 +10202,13 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="G76" s="2">
         <v>46</v>
@@ -10292,13 +10294,13 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="G77" s="2">
         <v>62</v>
@@ -10384,13 +10386,13 @@
         <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="G78" s="2">
         <v>33</v>
@@ -10476,13 +10478,13 @@
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="G79" s="2">
         <v>43</v>
@@ -10568,13 +10570,13 @@
         <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="G80" s="2">
         <v>39</v>
@@ -10660,13 +10662,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="G81" s="2">
         <v>43</v>
@@ -10752,13 +10754,13 @@
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="G82" s="2">
         <v>59</v>
@@ -10844,13 +10846,13 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="G83" s="2">
         <v>40</v>
@@ -10936,13 +10938,13 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="G84" s="2">
         <v>30</v>
@@ -11028,13 +11030,13 @@
         <v>2</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G85" s="2">
         <v>34</v>
@@ -11120,13 +11122,13 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="G86" s="2">
         <v>29</v>
@@ -11212,13 +11214,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="G87" s="2">
         <v>29</v>
@@ -11304,13 +11306,13 @@
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="G88" s="2">
         <v>28</v>
@@ -11396,13 +11398,13 @@
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="G89" s="2">
         <v>39</v>
@@ -11488,13 +11490,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="G90" s="2">
         <v>35</v>
@@ -11580,13 +11582,13 @@
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G91" s="2">
         <v>36</v>
@@ -11672,13 +11674,13 @@
         <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="G92" s="2">
         <v>43</v>
@@ -11764,13 +11766,13 @@
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="G93" s="2">
         <v>35</v>
@@ -11856,13 +11858,13 @@
         <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G94" s="2">
         <v>33</v>
@@ -11898,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S94" s="2">
         <v>37</v>
@@ -11948,13 +11950,13 @@
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="G95" s="2">
         <v>28</v>
@@ -12040,13 +12042,13 @@
         <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="G96" s="2">
         <v>34</v>
@@ -12132,13 +12134,13 @@
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="G97" s="2">
         <v>44</v>
@@ -12224,13 +12226,13 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="G98" s="2">
         <v>39</v>
@@ -12316,13 +12318,13 @@
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="G99" s="2">
         <v>34</v>
@@ -12408,13 +12410,13 @@
         <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G100" s="2">
         <v>28</v>
@@ -12500,13 +12502,13 @@
         <v>2</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="G101" s="2">
         <v>30</v>
@@ -12592,13 +12594,13 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G102" s="2">
         <v>32</v>
@@ -12684,13 +12686,13 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="G103" s="2">
         <v>33</v>
@@ -12776,13 +12778,13 @@
         <v>2</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G104" s="2">
         <v>41</v>
@@ -12818,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S104" s="2">
         <v>44</v>
@@ -12868,13 +12870,13 @@
         <v>2</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="G105" s="2">
         <v>44</v>
@@ -12960,13 +12962,13 @@
         <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="G106" s="2">
         <v>38</v>
@@ -13052,13 +13054,13 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="G107" s="2">
         <v>41</v>
@@ -13144,13 +13146,13 @@
         <v>2</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="G108" s="2">
         <v>33</v>
@@ -13236,13 +13238,13 @@
         <v>2</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="G109" s="2">
         <v>34</v>
@@ -13328,13 +13330,13 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="G110" s="2">
         <v>32</v>
@@ -13370,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S110" s="2">
         <v>37</v>
@@ -13420,13 +13422,13 @@
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="G111" s="2">
         <v>38</v>
@@ -13512,13 +13514,13 @@
         <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="G112" s="2">
         <v>39</v>
@@ -13542,7 +13544,7 @@
         <v>7</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O112" s="2">
         <v>1</v>
@@ -13604,13 +13606,13 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G113" s="2">
         <v>40</v>
@@ -13696,13 +13698,13 @@
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G114" s="2">
         <v>33</v>
@@ -13788,13 +13790,13 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="G115" s="2">
         <v>27</v>
@@ -13880,13 +13882,13 @@
         <v>2</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="G116" s="2">
         <v>34</v>
@@ -13972,13 +13974,13 @@
         <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="G117" s="2">
         <v>38</v>
@@ -14064,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G118" s="2">
         <v>33</v>
@@ -14156,13 +14158,13 @@
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="G119" s="2">
         <v>35</v>
@@ -14248,13 +14250,13 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="G120" s="2">
         <v>53</v>
@@ -14340,13 +14342,13 @@
         <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="G121" s="2">
         <v>25</v>
@@ -14432,13 +14434,13 @@
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="G122" s="2">
         <v>35</v>
@@ -14524,13 +14526,13 @@
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="G123" s="2">
         <v>35</v>
@@ -14616,13 +14618,13 @@
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="G124" s="2">
         <v>49</v>
@@ -14708,13 +14710,13 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="G125" s="2">
         <v>28</v>
@@ -14800,13 +14802,13 @@
         <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="G126" s="2">
         <v>27</v>
@@ -14892,13 +14894,13 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="G127" s="2">
         <v>33</v>
@@ -14984,13 +14986,13 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="G128" s="2">
         <v>40</v>
@@ -15076,13 +15078,13 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="G129" s="2">
         <v>44</v>
@@ -15168,13 +15170,13 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="G130" s="2">
         <v>38</v>
@@ -15260,13 +15262,13 @@
         <v>1</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="G131" s="2">
         <v>34</v>
@@ -15352,13 +15354,13 @@
         <v>1</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="G132" s="2">
         <v>25</v>
@@ -15444,13 +15446,13 @@
         <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="G133" s="2">
         <v>34</v>
@@ -15536,13 +15538,13 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="G134" s="2">
         <v>35</v>
@@ -15628,13 +15630,13 @@
         <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="G135" s="2">
         <v>43</v>
@@ -15720,13 +15722,13 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="G136" s="2">
         <v>44</v>
@@ -15812,13 +15814,13 @@
         <v>1</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="G137" s="2">
         <v>41</v>
@@ -15836,7 +15838,7 @@
         <v>68</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M137" s="2">
         <v>0</v>
@@ -15904,13 +15906,13 @@
         <v>2</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="G138" s="2">
         <v>22</v>
@@ -15996,13 +15998,13 @@
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="G139" s="2">
         <v>35</v>
@@ -16038,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S139" s="2">
         <v>37</v>
@@ -16088,13 +16090,13 @@
         <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G140" s="2">
         <v>29</v>
@@ -16180,13 +16182,13 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="G141" s="2">
         <v>39</v>
@@ -16204,7 +16206,7 @@
         <v>68</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M141" s="2">
         <v>0</v>
@@ -16272,13 +16274,13 @@
         <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="G142" s="2">
         <v>28</v>
@@ -16364,13 +16366,13 @@
         <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="G143" s="2">
         <v>36</v>
@@ -16456,13 +16458,13 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="G144" s="2">
         <v>36</v>
@@ -16548,13 +16550,13 @@
         <v>2</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="G145" s="2">
         <v>29</v>
@@ -16640,13 +16642,13 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="G146" s="2">
         <v>29</v>
@@ -16732,13 +16734,13 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="G147" s="2">
         <v>53</v>
@@ -16824,13 +16826,13 @@
         <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="G148" s="2">
         <v>45</v>
@@ -16916,13 +16918,13 @@
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="G149" s="2">
         <v>36</v>
@@ -17008,13 +17010,13 @@
         <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="G150" s="2">
         <v>54</v>
@@ -17100,13 +17102,13 @@
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="G151" s="2">
         <v>34</v>
@@ -17192,13 +17194,13 @@
         <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="G152" s="2">
         <v>48</v>
@@ -17284,13 +17286,13 @@
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="G153" s="2">
         <v>35</v>
@@ -17376,13 +17378,13 @@
         <v>1</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="G154" s="2">
         <v>39</v>
@@ -17468,13 +17470,13 @@
         <v>2</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="G155" s="2">
         <v>35</v>
@@ -17560,13 +17562,13 @@
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="G156" s="2">
         <v>34</v>
@@ -17652,13 +17654,13 @@
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="G157" s="2">
         <v>43</v>
@@ -17744,13 +17746,13 @@
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="G158" s="2">
         <v>38</v>
@@ -17836,13 +17838,13 @@
         <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="G159" s="2">
         <v>34</v>
@@ -17928,13 +17930,13 @@
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="G160" s="2">
         <v>33</v>
@@ -18020,13 +18022,13 @@
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="G161" s="2">
         <v>35</v>
@@ -18112,13 +18114,13 @@
         <v>2</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="G162" s="2">
         <v>39</v>
@@ -18204,13 +18206,13 @@
         <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="G163" s="2">
         <v>33</v>
@@ -18296,13 +18298,13 @@
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="G164" s="2">
         <v>30</v>
@@ -18388,13 +18390,13 @@
         <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="G165" s="2">
         <v>46</v>
@@ -18480,13 +18482,13 @@
         <v>2</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="G166" s="2">
         <v>60</v>
@@ -18572,13 +18574,13 @@
         <v>2</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="G167" s="2">
         <v>40</v>
@@ -18664,13 +18666,13 @@
         <v>2</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="G168" s="2">
         <v>38</v>
@@ -18756,13 +18758,13 @@
         <v>2</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="G169" s="2">
         <v>48</v>
@@ -18848,13 +18850,13 @@
         <v>2</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="G170" s="2">
         <v>34</v>
@@ -18940,13 +18942,13 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="G171" s="2">
         <v>17</v>
@@ -19032,13 +19034,13 @@
         <v>2</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="G172" s="2">
         <v>49</v>
@@ -19124,13 +19126,13 @@
         <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="G173" s="2">
         <v>34</v>
@@ -19216,13 +19218,13 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="G174" s="2">
         <v>45</v>
@@ -19308,13 +19310,13 @@
         <v>2</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="G175" s="2">
         <v>46</v>
@@ -19400,13 +19402,13 @@
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="G176" s="2">
         <v>35</v>
@@ -19492,13 +19494,13 @@
         <v>2</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="G177" s="2">
         <v>38</v>
@@ -19584,13 +19586,13 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="G178" s="2">
         <v>43</v>
@@ -19676,13 +19678,13 @@
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="G179" s="2">
         <v>45</v>
@@ -19768,13 +19770,13 @@
         <v>2</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="G180" s="2">
         <v>39</v>
@@ -19860,13 +19862,13 @@
         <v>2</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="G181" s="2">
         <v>38</v>
@@ -19952,13 +19954,13 @@
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="G182" s="2">
         <v>44</v>
@@ -20044,13 +20046,13 @@
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="G183" s="2">
         <v>38</v>
@@ -20136,13 +20138,13 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="F184" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="G184" s="2">
         <v>27</v>
@@ -20228,13 +20230,13 @@
         <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="G185" s="2">
         <v>40</v>
@@ -20320,13 +20322,13 @@
         <v>2</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="G186" s="2">
         <v>45</v>
@@ -20412,13 +20414,13 @@
         <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="G187" s="2">
         <v>49</v>
@@ -20504,13 +20506,13 @@
         <v>2</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="G188" s="2">
         <v>39</v>
@@ -20596,13 +20598,13 @@
         <v>2</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="G189" s="2">
         <v>41</v>
@@ -20688,13 +20690,13 @@
         <v>1</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="F190" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="G190" s="2">
         <v>25</v>
@@ -20780,13 +20782,13 @@
         <v>2</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="F191" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="G191" s="2">
         <v>50</v>
@@ -20822,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="R191" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S191" s="2">
         <v>39</v>
@@ -20872,13 +20874,13 @@
         <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="F192" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="G192" s="2">
         <v>44</v>
@@ -20964,13 +20966,13 @@
         <v>2</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="G193" s="2">
         <v>28</v>
@@ -21056,13 +21058,13 @@
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="G194" s="2">
         <v>36</v>
@@ -21148,13 +21150,13 @@
         <v>1</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="G195" s="2">
         <v>36</v>
@@ -21240,13 +21242,13 @@
         <v>2</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="F196" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="G196" s="2">
         <v>51</v>
@@ -21332,13 +21334,13 @@
         <v>2</v>
       </c>
       <c r="D197" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="G197" s="2">
         <v>56</v>
@@ -21424,13 +21426,13 @@
         <v>2</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="G198" s="2">
         <v>40</v>
@@ -21516,13 +21518,13 @@
         <v>2</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="F199" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="G199" s="2">
         <v>45</v>
@@ -21608,13 +21610,13 @@
         <v>2</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="G200" s="2">
         <v>48</v>
@@ -21700,13 +21702,13 @@
         <v>2</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="F201" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="G201" s="2">
         <v>49</v>
@@ -21724,7 +21726,7 @@
         <v>68</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M201" s="2">
         <v>0</v>
@@ -21792,13 +21794,13 @@
         <v>2</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="G202" s="2">
         <v>38</v>
@@ -21884,13 +21886,13 @@
         <v>1</v>
       </c>
       <c r="D203" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="G203" s="2">
         <v>36</v>
@@ -21976,13 +21978,13 @@
         <v>2</v>
       </c>
       <c r="D204" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="G204" s="2">
         <v>22</v>
@@ -22006,7 +22008,7 @@
         <v>10</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O204" s="2">
         <v>1</v>
@@ -22018,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="R204" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S204" s="2">
         <v>54</v>
@@ -22027,10 +22029,10 @@
         <v>27</v>
       </c>
       <c r="U204" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="W204" s="2">
         <v>45</v>
@@ -22051,10 +22053,10 @@
         <v>27</v>
       </c>
       <c r="AC204" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AD204" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="205" spans="1:30" ht="54" x14ac:dyDescent="0.3">
@@ -22068,13 +22070,13 @@
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="G205" s="2">
         <v>30</v>
@@ -22110,7 +22112,7 @@
         <v>1</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S205" s="2">
         <v>64</v>
@@ -22160,13 +22162,13 @@
         <v>2</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="G206" s="2">
         <v>36</v>
@@ -22252,13 +22254,13 @@
         <v>2</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="G207" s="2">
         <v>30</v>
@@ -22344,13 +22346,13 @@
         <v>1</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="F208" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="G208" s="2">
         <v>35</v>
@@ -22436,13 +22438,13 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="G209" s="2">
         <v>41</v>
@@ -22528,13 +22530,13 @@
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="G210" s="2">
         <v>39</v>
@@ -22620,13 +22622,13 @@
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="F211" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="G211" s="2">
         <v>19</v>
@@ -22712,13 +22714,13 @@
         <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E212" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="G212" s="2">
         <v>41</v>
@@ -22804,13 +22806,13 @@
         <v>1</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="G213" s="2">
         <v>50</v>
@@ -22896,13 +22898,13 @@
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="F214" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="G214" s="2">
         <v>36</v>
@@ -22988,13 +22990,13 @@
         <v>2</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="F215" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="G215" s="2">
         <v>49</v>
@@ -23080,13 +23082,13 @@
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="F216" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="G216" s="2">
         <v>34</v>
@@ -23172,13 +23174,13 @@
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="F217" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="G217" s="2">
         <v>41</v>
@@ -23264,13 +23266,13 @@
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="F218" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="G218" s="2">
         <v>38</v>
@@ -23356,13 +23358,13 @@
         <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F219" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="G219" s="2">
         <v>49</v>
@@ -23448,13 +23450,13 @@
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="G220" s="2">
         <v>38</v>
@@ -23540,13 +23542,13 @@
         <v>1</v>
       </c>
       <c r="D221" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F221" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="G221" s="2">
         <v>50</v>
@@ -23632,13 +23634,13 @@
         <v>2</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F222" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="G222" s="2">
         <v>41</v>
@@ -23724,13 +23726,13 @@
         <v>2</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="G223" s="2">
         <v>49</v>
@@ -23816,13 +23818,13 @@
         <v>1</v>
       </c>
       <c r="D224" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="G224" s="2">
         <v>39</v>
@@ -23908,13 +23910,13 @@
         <v>2</v>
       </c>
       <c r="D225" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="G225" s="2">
         <v>40</v>
@@ -24000,13 +24002,13 @@
         <v>2</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G226" s="2">
         <v>32</v>
@@ -24042,7 +24044,7 @@
         <v>1</v>
       </c>
       <c r="R226" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S226" s="2">
         <v>51</v>
@@ -24092,13 +24094,13 @@
         <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="G227" s="2">
         <v>33</v>
@@ -24184,13 +24186,13 @@
         <v>2</v>
       </c>
       <c r="D228" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="G228" s="2">
         <v>51</v>
@@ -24276,13 +24278,13 @@
         <v>2</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F229" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="G229" s="2">
         <v>41</v>
@@ -24368,13 +24370,13 @@
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="G230" s="2">
         <v>35</v>
@@ -24460,13 +24462,13 @@
         <v>2</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="G231" s="2">
         <v>43</v>
@@ -24552,13 +24554,13 @@
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="G232" s="2">
         <v>32</v>
@@ -24644,13 +24646,13 @@
         <v>2</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="G233" s="2">
         <v>46</v>
@@ -24736,13 +24738,13 @@
         <v>2</v>
       </c>
       <c r="D234" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="G234" s="2">
         <v>38</v>
@@ -24760,7 +24762,7 @@
         <v>68</v>
       </c>
       <c r="L234" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M234" s="2">
         <v>0</v>
@@ -24778,7 +24780,7 @@
         <v>1</v>
       </c>
       <c r="R234" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S234" s="2">
         <v>37</v>
@@ -24828,13 +24830,13 @@
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="G235" s="2">
         <v>48</v>
@@ -24911,12 +24913,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:AD1"/>
@@ -24933,6 +24929,12 @@
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
